--- a/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74D4A95-9A9D-407B-A1DF-85DE074F9562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02B9D06-EA2A-46D4-8783-58C2FBDB112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E99568A-F8D7-4E90-88A4-78DFA38A8388}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC582CD3-4F2A-4B9B-BF61-81DF0D12B47D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="430">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1249 +77,1258 @@
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>15,07%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>23,41%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>77,25%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0FD710-C83B-4C8D-8BDE-452167E7D7BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6423A2A5-73A5-4BE9-B85E-B5D1470A8AA3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2020,7 +2029,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2336,10 +2345,10 @@
         <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2348,13 +2357,13 @@
         <v>16587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2378,13 @@
         <v>31360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2384,13 +2393,13 @@
         <v>17149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -2399,13 +2408,13 @@
         <v>48509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2482,13 @@
         <v>29806</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -2488,13 +2497,13 @@
         <v>48960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2503,13 +2512,13 @@
         <v>78766</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2533,13 @@
         <v>84223</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -2539,13 +2548,13 @@
         <v>157952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -2554,13 +2563,13 @@
         <v>242175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2584,13 @@
         <v>388438</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>469</v>
@@ -2590,13 +2599,13 @@
         <v>469930</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>872</v>
@@ -2605,13 +2614,13 @@
         <v>858368</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,7 +2676,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2686,7 +2695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F583C5F7-E2FB-44D8-BAE6-5525290F00AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C4405-2854-4DF1-8A53-BC452919C407}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2703,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2810,13 +2819,13 @@
         <v>49910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>80</v>
@@ -2825,13 +2834,13 @@
         <v>88862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -2840,13 +2849,13 @@
         <v>138772</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2870,13 @@
         <v>68686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>128</v>
@@ -2876,13 +2885,13 @@
         <v>135767</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -2891,13 +2900,13 @@
         <v>204453</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2921,13 @@
         <v>295802</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7">
         <v>388</v>
@@ -2927,13 +2936,13 @@
         <v>409916</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>662</v>
@@ -2942,13 +2951,13 @@
         <v>705717</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3025,13 @@
         <v>4034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3031,13 +3040,13 @@
         <v>3480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3046,13 +3055,13 @@
         <v>7515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3076,13 @@
         <v>15024</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -3082,13 +3091,13 @@
         <v>12774</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -3097,13 +3106,13 @@
         <v>27798</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3127,13 @@
         <v>99607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -3133,13 +3142,13 @@
         <v>66820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -3148,13 +3157,13 @@
         <v>166427</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3231,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3237,13 +3246,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3252,13 +3261,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,10 +3285,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3288,13 +3297,13 @@
         <v>3324</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3303,13 +3312,13 @@
         <v>3324</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3333,13 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3339,13 +3348,13 @@
         <v>17823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3354,13 +3363,13 @@
         <v>43412</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3437,13 @@
         <v>54930</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3443,13 +3452,13 @@
         <v>93442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -3458,13 +3467,13 @@
         <v>148372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3488,13 @@
         <v>83709</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -3494,13 +3503,13 @@
         <v>151865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -3509,13 +3518,13 @@
         <v>235574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3539,13 @@
         <v>420997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>465</v>
@@ -3545,13 +3554,13 @@
         <v>494558</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>847</v>
@@ -3560,13 +3569,13 @@
         <v>915555</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3631,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3641,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F641B86E-379A-43DC-9C33-27B71B824F47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2CB73-A5DF-4AFB-9CD0-3E2A9E89CA3F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3658,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3765,13 +3774,13 @@
         <v>36294</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3780,13 +3789,13 @@
         <v>48729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -3795,13 +3804,13 @@
         <v>85023</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,16 +3822,16 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>53099</v>
+        <v>53098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -3831,13 +3840,13 @@
         <v>133883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>167</v>
@@ -3846,13 +3855,13 @@
         <v>186982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,16 +3873,16 @@
         <v>286</v>
       </c>
       <c r="D6" s="7">
-        <v>264510</v>
+        <v>264509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>325</v>
@@ -3882,13 +3891,13 @@
         <v>372144</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>611</v>
@@ -3897,13 +3906,13 @@
         <v>636653</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3924,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3971,13 +3980,13 @@
         <v>8853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3989,10 +3998,10 @@
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4001,13 +4010,13 @@
         <v>8853</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4031,13 @@
         <v>9861</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4037,13 +4046,13 @@
         <v>45211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -4052,13 +4061,13 @@
         <v>55073</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4082,13 @@
         <v>173818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -4088,13 +4097,13 @@
         <v>142863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>298</v>
@@ -4103,13 +4112,13 @@
         <v>316681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4186,13 @@
         <v>736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4192,13 +4201,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4207,13 +4216,13 @@
         <v>2112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4237,13 @@
         <v>4382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4243,13 +4252,13 @@
         <v>4287</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4258,13 +4267,13 @@
         <v>8669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4288,13 @@
         <v>36911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4294,13 +4303,13 @@
         <v>28011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -4309,13 +4318,13 @@
         <v>64922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4392,13 @@
         <v>45882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4398,13 +4407,13 @@
         <v>50105</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4413,13 +4422,13 @@
         <v>95987</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4443,13 @@
         <v>67342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -4449,13 +4458,13 @@
         <v>183381</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>221</v>
@@ -4464,13 +4473,13 @@
         <v>250723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4494,13 @@
         <v>475239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>469</v>
@@ -4500,13 +4509,13 @@
         <v>543018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>967</v>
@@ -4515,13 +4524,13 @@
         <v>1018257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4586,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4596,7 +4605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330CD5F8-48EC-4865-A26F-C165F9AD7DC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D517C9DB-49CA-4CA7-A953-981E0A56C87B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4613,7 +4622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4720,13 +4729,13 @@
         <v>35843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>176</v>
@@ -4735,13 +4744,13 @@
         <v>98782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>239</v>
@@ -4750,13 +4759,13 @@
         <v>134625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4780,13 @@
         <v>51340</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>275</v>
@@ -4786,13 +4795,13 @@
         <v>148356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>353</v>
@@ -4801,13 +4810,13 @@
         <v>199696</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4831,13 @@
         <v>198840</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H6" s="7">
         <v>568</v>
@@ -4837,13 +4846,13 @@
         <v>308381</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>853</v>
@@ -4852,13 +4861,13 @@
         <v>507221</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4935,13 @@
         <v>11485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -4941,13 +4950,13 @@
         <v>10012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -4956,13 +4965,13 @@
         <v>21497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4986,13 @@
         <v>27786</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4992,13 +5001,13 @@
         <v>43515</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
@@ -5007,13 +5016,13 @@
         <v>71301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5037,13 @@
         <v>255295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>425</v>
@@ -5043,13 +5052,13 @@
         <v>332284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>790</v>
@@ -5058,13 +5067,13 @@
         <v>587578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5141,13 @@
         <v>4173</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5147,13 +5156,13 @@
         <v>1063</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5162,13 +5171,13 @@
         <v>5237</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5192,13 @@
         <v>9995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5198,13 +5207,13 @@
         <v>12975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5213,13 +5222,13 @@
         <v>22970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5243,13 @@
         <v>97817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -5249,13 +5258,13 @@
         <v>64207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
@@ -5264,13 +5273,13 @@
         <v>162024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5347,13 @@
         <v>51502</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -5353,13 +5362,13 @@
         <v>109857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
@@ -5368,13 +5377,13 @@
         <v>161359</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5398,13 @@
         <v>89121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -5404,13 +5413,13 @@
         <v>204846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
@@ -5419,13 +5428,13 @@
         <v>293968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5449,13 @@
         <v>551952</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>1119</v>
@@ -5455,13 +5464,13 @@
         <v>704872</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>1916</v>
@@ -5470,13 +5479,13 @@
         <v>1256824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5541,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02B9D06-EA2A-46D4-8783-58C2FBDB112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4524ABBA-5E41-4737-8950-BBFFC8630C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC582CD3-4F2A-4B9B-BF61-81DF0D12B47D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27F8CEC1-3716-4168-B7B0-832C7AC4000A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="431">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,28 +107,28 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -137,28 +137,28 @@
     <t>75,41%</t>
   </si>
   <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
   </si>
   <si>
     <t>68,75%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -173,1117 +173,1120 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>6,91%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>65,6%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>12,18%</t>
+    <t>12,01%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>23,6%</t>
+    <t>26,03%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>10,85%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
   </si>
   <si>
     <t>15,07%</t>
@@ -1740,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6423A2A5-73A5-4BE9-B85E-B5D1470A8AA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C47CB62-A31A-410D-8C32-60C075690A02}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2029,7 +2032,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2695,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C4405-2854-4DF1-8A53-BC452919C407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DDA3D-E3B2-49FF-A269-38EE57B03920}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3091,13 +3094,13 @@
         <v>12774</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -3106,13 +3109,13 @@
         <v>27798</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3130,13 @@
         <v>99607</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -3142,13 +3145,13 @@
         <v>66820</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -3157,13 +3160,13 @@
         <v>166427</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3234,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3246,13 +3249,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3261,13 +3264,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,10 +3288,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3297,13 +3300,13 @@
         <v>3324</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3312,13 +3315,13 @@
         <v>3324</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3336,13 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3348,13 +3351,13 @@
         <v>17823</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3363,13 +3366,13 @@
         <v>43412</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3440,13 @@
         <v>54930</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3524,7 +3527,7 @@
         <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3542,13 @@
         <v>420997</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>465</v>
@@ -3554,13 +3557,13 @@
         <v>494558</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>847</v>
@@ -3569,13 +3572,13 @@
         <v>915555</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA2CB73-A5DF-4AFB-9CD0-3E2A9E89CA3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3709134-2839-4434-96AD-941C634AABE9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3774,10 +3777,10 @@
         <v>36294</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>229</v>
@@ -3822,7 +3825,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>53098</v>
+        <v>53099</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3873,7 +3876,7 @@
         <v>286</v>
       </c>
       <c r="D6" s="7">
-        <v>264509</v>
+        <v>264510</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>245</v>
@@ -3924,7 +3927,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3998,7 +4001,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>257</v>
@@ -4037,7 +4040,7 @@
         <v>262</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4046,13 +4049,13 @@
         <v>45211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -4061,13 +4064,13 @@
         <v>55073</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4085,13 @@
         <v>173818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -4097,13 +4100,13 @@
         <v>142863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>298</v>
@@ -4112,13 +4115,13 @@
         <v>316681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4189,13 @@
         <v>736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4201,13 +4204,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4216,13 +4219,13 @@
         <v>2112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4240,13 @@
         <v>4382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4252,13 +4255,13 @@
         <v>4287</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4267,13 +4270,13 @@
         <v>8669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4482,7 @@
         <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4497,13 @@
         <v>475239</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>469</v>
@@ -4509,13 +4512,13 @@
         <v>543018</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>967</v>
@@ -4524,13 +4527,13 @@
         <v>1018257</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D517C9DB-49CA-4CA7-A953-981E0A56C87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D57DE8A-03F0-4275-81BC-07BF360A92D9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4622,7 +4625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4729,13 +4732,13 @@
         <v>35843</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>176</v>
@@ -4744,13 +4747,13 @@
         <v>98782</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>239</v>
@@ -4759,13 +4762,13 @@
         <v>134625</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +4783,7 @@
         <v>51340</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>339</v>
@@ -5004,7 +5007,7 @@
         <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>368</v>
@@ -5192,10 +5195,10 @@
         <v>9995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>390</v>
@@ -5222,10 +5225,10 @@
         <v>22970</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>395</v>
@@ -5401,10 +5404,10 @@
         <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -5413,13 +5416,13 @@
         <v>204846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
@@ -5428,13 +5431,13 @@
         <v>293968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,10 +5452,10 @@
         <v>551952</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>399</v>
@@ -5464,13 +5467,13 @@
         <v>704872</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M18" s="7">
         <v>1916</v>
@@ -5479,13 +5482,13 @@
         <v>1256824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4524ABBA-5E41-4737-8950-BBFFC8630C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{859CEC1A-659E-4A0D-9AA4-B695271A3CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27F8CEC1-3716-4168-B7B0-832C7AC4000A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6054D670-F6F3-4FBA-91E9-2FA4A2283544}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="427">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1261 +77,1249 @@
     <t>7,25%</t>
   </si>
   <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>16,44%</t>
+    <t>16,22%</t>
   </si>
   <si>
     <t>87,35%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>23,41%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>77,25%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C47CB62-A31A-410D-8C32-60C075690A02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3A3B8-455C-4B59-878D-EBDC2C42A189}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2348,10 +2336,10 @@
         <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2360,13 +2348,13 @@
         <v>16587</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2369,13 @@
         <v>31360</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2396,13 +2384,13 @@
         <v>17149</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -2411,13 +2399,13 @@
         <v>48509</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2473,13 @@
         <v>29806</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -2500,13 +2488,13 @@
         <v>48960</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2515,13 +2503,13 @@
         <v>78766</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2524,13 @@
         <v>84223</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -2551,13 +2539,13 @@
         <v>157952</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -2566,13 +2554,13 @@
         <v>242175</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2575,13 @@
         <v>388438</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>469</v>
@@ -2602,13 +2590,13 @@
         <v>469930</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>872</v>
@@ -2617,13 +2605,13 @@
         <v>858368</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,7 +2667,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DDA3D-E3B2-49FF-A269-38EE57B03920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC8997D-9695-4E15-A83D-9A45305FB7A9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2715,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2822,13 +2810,13 @@
         <v>49910</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>80</v>
@@ -2837,13 +2825,13 @@
         <v>88862</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -2852,13 +2840,13 @@
         <v>138772</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2861,13 @@
         <v>68686</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>128</v>
@@ -2888,13 +2876,13 @@
         <v>135767</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -2903,13 +2891,13 @@
         <v>204453</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2912,13 @@
         <v>295802</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H6" s="7">
         <v>388</v>
@@ -2939,13 +2927,13 @@
         <v>409916</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>662</v>
@@ -2954,13 +2942,13 @@
         <v>705717</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3016,13 @@
         <v>4034</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3043,13 +3031,13 @@
         <v>3480</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3058,13 +3046,13 @@
         <v>7515</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3067,13 @@
         <v>15024</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -3094,13 +3082,13 @@
         <v>12774</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -3109,13 +3097,13 @@
         <v>27798</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3118,13 @@
         <v>99607</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -3145,13 +3133,13 @@
         <v>66820</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -3160,13 +3148,13 @@
         <v>166427</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3222,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3249,13 +3237,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3264,13 +3252,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,10 +3276,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3300,13 +3288,13 @@
         <v>3324</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3315,13 +3303,13 @@
         <v>3324</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3324,13 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3351,13 +3339,13 @@
         <v>17823</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3366,13 +3354,13 @@
         <v>43412</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3428,13 @@
         <v>54930</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3455,13 +3443,13 @@
         <v>93442</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -3470,13 +3458,13 @@
         <v>148372</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3479,13 @@
         <v>83709</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -3506,13 +3494,13 @@
         <v>151865</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -3521,13 +3509,13 @@
         <v>235574</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3530,13 @@
         <v>420997</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H18" s="7">
         <v>465</v>
@@ -3557,13 +3545,13 @@
         <v>494558</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>847</v>
@@ -3572,13 +3560,13 @@
         <v>915555</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,7 +3622,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3709134-2839-4434-96AD-941C634AABE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBA297-251E-4478-A9BF-0F305A0B6CBF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3670,7 +3658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3777,13 +3765,13 @@
         <v>36294</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3792,13 +3780,13 @@
         <v>48729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -3807,13 +3795,13 @@
         <v>85023</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3816,13 @@
         <v>53099</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -3843,13 +3831,13 @@
         <v>133883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>167</v>
@@ -3858,13 +3846,13 @@
         <v>186982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>264510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H6" s="7">
         <v>325</v>
@@ -3894,13 +3882,13 @@
         <v>372144</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>611</v>
@@ -3909,13 +3897,13 @@
         <v>636653</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3971,13 @@
         <v>8853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4001,10 +3989,10 @@
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4013,13 +4001,13 @@
         <v>8853</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4022,13 @@
         <v>9861</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4049,13 +4037,13 @@
         <v>45211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -4064,13 +4052,13 @@
         <v>55073</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4073,13 @@
         <v>173818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -4100,13 +4088,13 @@
         <v>142863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>298</v>
@@ -4115,13 +4103,13 @@
         <v>316681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4177,13 @@
         <v>736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4204,13 +4192,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4219,13 +4207,13 @@
         <v>2112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4228,13 @@
         <v>4382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4255,13 +4243,13 @@
         <v>4287</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4270,13 +4258,13 @@
         <v>8669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4279,13 @@
         <v>36911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4306,13 +4294,13 @@
         <v>28011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -4321,13 +4309,13 @@
         <v>64922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4383,13 @@
         <v>45882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4410,13 +4398,13 @@
         <v>50105</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4425,13 +4413,13 @@
         <v>95987</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4434,13 @@
         <v>67342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -4461,13 +4449,13 @@
         <v>183381</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>221</v>
@@ -4476,13 +4464,13 @@
         <v>250723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4485,13 @@
         <v>475239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H18" s="7">
         <v>469</v>
@@ -4512,13 +4500,13 @@
         <v>543018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M18" s="7">
         <v>967</v>
@@ -4527,13 +4515,13 @@
         <v>1018257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4577,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4608,7 +4596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D57DE8A-03F0-4275-81BC-07BF360A92D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FB5F90-331D-4E3C-A20B-E613F3C2D615}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4625,7 +4613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4732,13 +4720,13 @@
         <v>35843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>176</v>
@@ -4747,13 +4735,13 @@
         <v>98782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>239</v>
@@ -4762,13 +4750,13 @@
         <v>134625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4771,13 @@
         <v>51340</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>275</v>
@@ -4798,13 +4786,13 @@
         <v>148356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>353</v>
@@ -4813,13 +4801,13 @@
         <v>199696</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4822,13 @@
         <v>198840</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H6" s="7">
         <v>568</v>
@@ -4849,13 +4837,13 @@
         <v>308381</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>853</v>
@@ -4864,13 +4852,13 @@
         <v>507221</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4926,13 @@
         <v>11485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -4953,13 +4941,13 @@
         <v>10012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -4968,13 +4956,13 @@
         <v>21497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4977,13 @@
         <v>27786</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -5004,13 +4992,13 @@
         <v>43515</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
@@ -5019,13 +5007,13 @@
         <v>71301</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5028,13 @@
         <v>255295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>425</v>
@@ -5055,13 +5043,13 @@
         <v>332284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>790</v>
@@ -5070,13 +5058,13 @@
         <v>587578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5132,13 @@
         <v>4173</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5159,13 +5147,13 @@
         <v>1063</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5174,13 +5162,13 @@
         <v>5237</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5183,13 @@
         <v>9995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5210,13 +5198,13 @@
         <v>12975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5225,13 +5213,13 @@
         <v>22970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5234,13 @@
         <v>97817</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -5261,13 +5249,13 @@
         <v>64207</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
@@ -5276,13 +5264,13 @@
         <v>162024</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5338,13 @@
         <v>51502</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -5365,13 +5353,13 @@
         <v>109857</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
@@ -5380,13 +5368,13 @@
         <v>161359</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5389,13 @@
         <v>89121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -5416,13 +5404,13 @@
         <v>204846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
@@ -5431,13 +5419,13 @@
         <v>293968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5440,13 @@
         <v>551952</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>1119</v>
@@ -5467,13 +5455,13 @@
         <v>704872</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>1916</v>
@@ -5482,13 +5470,13 @@
         <v>1256824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5532,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859CEC1A-659E-4A0D-9AA4-B695271A3CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{850B0B66-F12C-4509-B4EC-01E8E3F3870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6054D670-F6F3-4FBA-91E9-2FA4A2283544}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{37D56BF3-D13B-4CDE-BA9E-C9EAFE0F363A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="428">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -1019,307 +1019,310 @@
     <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3A3B8-455C-4B59-878D-EBDC2C42A189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC5A677-1AA8-4AFC-B360-4E8993D74E5D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2020,7 +2023,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2686,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC8997D-9695-4E15-A83D-9A45305FB7A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFA3206-78DA-4E8C-AA32-565626892734}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3641,7 +3644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBA297-251E-4478-A9BF-0F305A0B6CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B6B463-AB0C-4622-9F99-C6A757F0B964}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3816,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>53099</v>
+        <v>53098</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>233</v>
@@ -3864,7 +3867,7 @@
         <v>286</v>
       </c>
       <c r="D6" s="7">
-        <v>264510</v>
+        <v>264509</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>242</v>
@@ -3915,7 +3918,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4596,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FB5F90-331D-4E3C-A20B-E613F3C2D615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B2DE0-EB25-4DED-BF1A-50C4EC95E576}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4717,7 +4720,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="7">
-        <v>35843</v>
+        <v>34139</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>326</v>
@@ -4732,31 +4735,31 @@
         <v>176</v>
       </c>
       <c r="I4" s="7">
-        <v>98782</v>
+        <v>88897</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>239</v>
       </c>
       <c r="N4" s="7">
-        <v>134625</v>
+        <v>123035</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,46 +4771,46 @@
         <v>78</v>
       </c>
       <c r="D5" s="7">
-        <v>51340</v>
+        <v>49104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>275</v>
       </c>
       <c r="I5" s="7">
-        <v>148356</v>
+        <v>133143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>353</v>
       </c>
       <c r="N5" s="7">
-        <v>199696</v>
+        <v>182246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,46 +4822,46 @@
         <v>285</v>
       </c>
       <c r="D6" s="7">
-        <v>198840</v>
+        <v>184681</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>568</v>
       </c>
       <c r="I6" s="7">
-        <v>308381</v>
+        <v>278694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>853</v>
       </c>
       <c r="N6" s="7">
-        <v>507221</v>
+        <v>463374</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,7 +4873,7 @@
         <v>426</v>
       </c>
       <c r="D7" s="7">
-        <v>286023</v>
+        <v>267923</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4885,7 +4888,7 @@
         <v>1019</v>
       </c>
       <c r="I7" s="7">
-        <v>555520</v>
+        <v>500733</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4900,7 +4903,7 @@
         <v>1445</v>
       </c>
       <c r="N7" s="7">
-        <v>841543</v>
+        <v>768656</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4923,46 +4926,46 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>11485</v>
+        <v>10796</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>10012</v>
+        <v>9146</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
       </c>
       <c r="N8" s="7">
-        <v>21497</v>
+        <v>19942</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,46 +4977,46 @@
         <v>45</v>
       </c>
       <c r="D9" s="7">
-        <v>27786</v>
+        <v>26494</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
       </c>
       <c r="I9" s="7">
-        <v>43515</v>
+        <v>39472</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>71301</v>
+        <v>65966</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,46 +5028,46 @@
         <v>365</v>
       </c>
       <c r="D10" s="7">
-        <v>255295</v>
+        <v>235967</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>425</v>
       </c>
       <c r="I10" s="7">
-        <v>332284</v>
+        <v>406556</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>790</v>
       </c>
       <c r="N10" s="7">
-        <v>587578</v>
+        <v>642523</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5079,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5091,7 +5094,7 @@
         <v>528</v>
       </c>
       <c r="I11" s="7">
-        <v>385811</v>
+        <v>455174</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5106,7 +5109,7 @@
         <v>954</v>
       </c>
       <c r="N11" s="7">
-        <v>680376</v>
+        <v>728431</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5129,46 +5132,46 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4173</v>
+        <v>3912</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1063</v>
+        <v>983</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5237</v>
+        <v>4895</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,46 +5183,46 @@
         <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>9995</v>
+        <v>9327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>12975</v>
+        <v>11940</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>22970</v>
+        <v>21267</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,46 +5234,46 @@
         <v>147</v>
       </c>
       <c r="D14" s="7">
-        <v>97817</v>
+        <v>91747</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
       </c>
       <c r="I14" s="7">
-        <v>64207</v>
+        <v>58402</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
       </c>
       <c r="N14" s="7">
-        <v>162024</v>
+        <v>150149</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5285,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5297,7 +5300,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5312,7 +5315,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5335,46 +5338,46 @@
         <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>51502</v>
+        <v>48847</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
       </c>
       <c r="I16" s="7">
-        <v>109857</v>
+        <v>99025</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
       </c>
       <c r="N16" s="7">
-        <v>161359</v>
+        <v>147872</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,46 +5389,46 @@
         <v>137</v>
       </c>
       <c r="D17" s="7">
-        <v>89121</v>
+        <v>84925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
       </c>
       <c r="I17" s="7">
-        <v>204846</v>
+        <v>184555</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
       </c>
       <c r="N17" s="7">
-        <v>293968</v>
+        <v>269479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,46 +5440,46 @@
         <v>797</v>
       </c>
       <c r="D18" s="7">
-        <v>551952</v>
+        <v>512395</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
         <v>1119</v>
       </c>
       <c r="I18" s="7">
-        <v>704872</v>
+        <v>743651</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>1916</v>
       </c>
       <c r="N18" s="7">
-        <v>1256824</v>
+        <v>1256046</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,7 +5491,7 @@
         <v>1020</v>
       </c>
       <c r="D19" s="7">
-        <v>692575</v>
+        <v>646166</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5503,7 +5506,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019576</v>
+        <v>1027231</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5518,7 +5521,7 @@
         <v>2719</v>
       </c>
       <c r="N19" s="7">
-        <v>1712151</v>
+        <v>1673397</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
